--- a/eval_results/AllResults_NIND_10Runs_BagSample.xlsx
+++ b/eval_results/AllResults_NIND_10Runs_BagSample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sav/GolandProjects/cellCNN/cellCNNClear/data/cellCNN/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sav/GolandProjects/cellCNN/eval_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95A3C2C-8828-F746-B41E-03634B4D318E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BBDE50-2598-AF43-A57E-CC7213EEC443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16120" xr2:uid="{5A281BAD-C649-4845-9D56-5F88547FA454}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16060" xr2:uid="{5A281BAD-C649-4845-9D56-5F88547FA454}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,15 +61,6 @@
     <t>Multi-cell Classification</t>
   </si>
   <si>
-    <t>PEGASUS (N=2)</t>
-  </si>
-  <si>
-    <t>PEGASUS (N=4)</t>
-  </si>
-  <si>
-    <t>PEGASUS (N=6)</t>
-  </si>
-  <si>
     <t>Local_2</t>
   </si>
   <si>
@@ -77,6 +68,15 @@
   </si>
   <si>
     <t>Local_6</t>
+  </si>
+  <si>
+    <t>PriCell (N=2)</t>
+  </si>
+  <si>
+    <t>PriCell (N=4)</t>
+  </si>
+  <si>
+    <t>PriCell (N=6)</t>
   </si>
 </sst>
 </file>
@@ -440,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B81BF7-15A3-DD4C-9241-5BF42E45AA8B}">
   <dimension ref="A1:J149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94:E94"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -872,7 +872,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B22">
         <v>0.70833332999999998</v>
@@ -892,7 +892,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B23">
         <v>0.70833332999999998</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B24">
         <v>0.54166667000000002</v>
@@ -932,7 +932,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B25">
         <v>0.75</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B26">
         <v>0.54166667000000002</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B27">
         <v>0.75</v>
@@ -992,7 +992,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B28">
         <v>0.75</v>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B29">
         <v>0.54166667000000002</v>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B30">
         <v>0.5</v>
@@ -1052,7 +1052,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B31">
         <v>0.45833332999999998</v>
@@ -1072,7 +1072,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B32">
         <v>0.63327666000000005</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B33">
         <v>0.67248450000000004</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B34">
         <v>0.54555911000000001</v>
@@ -1132,7 +1132,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B35">
         <v>0.69143829000000001</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B36">
         <v>0.54555911000000001</v>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B37">
         <v>0.73219643999999995</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B38">
         <v>0.71744348999999996</v>
@@ -1216,7 +1216,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B39">
         <v>0.56431286000000003</v>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B40">
         <v>0.53260651999999997</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B41">
         <v>0.46674335</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B42">
         <v>0.67</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -1321,7 +1321,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B44">
         <v>0.83</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B45">
         <v>0.75</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B46">
         <v>0.5</v>
@@ -1387,7 +1387,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B47">
         <v>0.57999999999999996</v>
@@ -1409,7 +1409,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B48">
         <v>0.67</v>
@@ -1430,7 +1430,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B49">
         <v>0.5</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B50">
         <v>0.57999999999999996</v>
@@ -1472,7 +1472,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B51">
         <v>0.75</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B52">
         <v>0.81</v>
@@ -1514,7 +1514,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B53">
         <v>0.73</v>
@@ -1536,7 +1536,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B54">
         <v>0.53</v>
@@ -1558,7 +1558,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B55">
         <v>0.75</v>
@@ -1580,7 +1580,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B56">
         <v>0.82</v>
@@ -1602,7 +1602,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B57">
         <v>0.73</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B58">
         <v>0.59</v>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B59">
         <v>0.59</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B60">
         <v>0.63</v>
@@ -1688,7 +1688,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B61">
         <v>0.5</v>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B62">
         <v>0.66666667000000002</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B63">
         <v>0.5625</v>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B64">
         <v>0.66666667000000002</v>
@@ -1774,7 +1774,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B65">
         <v>0.54166667000000002</v>
@@ -1795,7 +1795,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B66">
         <v>0.60416667000000002</v>
@@ -1816,7 +1816,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B67">
         <v>0.5625</v>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B68">
         <v>0.66666667000000002</v>
@@ -1858,7 +1858,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B69">
         <v>0.64583332999999998</v>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B70">
         <v>0.45833332999999998</v>
@@ -1899,7 +1899,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B71">
         <v>0.66666667000000002</v>
@@ -1920,7 +1920,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B72">
         <v>0.64035306999999997</v>
@@ -1941,7 +1941,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B73">
         <v>0.54923485000000005</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B74">
         <v>0.65575614999999998</v>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B75">
         <v>0.55008502000000004</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B76">
         <v>0.62004901000000001</v>
@@ -2024,7 +2024,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B77">
         <v>0.59379375999999995</v>
@@ -2045,7 +2045,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B78">
         <v>0.61812363000000003</v>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B79">
         <v>0.60484596999999996</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B80">
         <v>0.47844568999999998</v>
@@ -2107,7 +2107,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B81">
         <v>0.65045509000000001</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B82">
         <v>0.5</v>
@@ -2149,7 +2149,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B83">
         <v>0.66</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B84">
         <v>0.67</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B85">
         <v>0.67</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B86">
         <v>0.57999999999999996</v>
@@ -2234,7 +2234,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B87">
         <v>0.67</v>
@@ -2256,7 +2256,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B88">
         <v>0.57999999999999996</v>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B89">
         <v>0.83</v>
@@ -2300,7 +2300,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B90">
         <v>0.83</v>
@@ -2322,7 +2322,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B91">
         <v>0.75</v>
@@ -2344,7 +2344,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B92">
         <v>0.88</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B93">
         <v>0.48</v>
@@ -2388,7 +2388,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B94">
         <v>0.69</v>
@@ -2410,19 +2410,19 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B95">
-        <v>0.65</v>
+        <v>0.69</v>
       </c>
       <c r="C95">
-        <v>0.64</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D95">
-        <v>0.65</v>
+        <v>0.72</v>
       </c>
       <c r="E95">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="F95" t="s">
         <v>8</v>
@@ -2432,19 +2432,19 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B96">
-        <v>0.59</v>
+        <v>0.73</v>
       </c>
       <c r="C96">
-        <v>0.57999999999999996</v>
+        <v>0.72</v>
       </c>
       <c r="D96">
-        <v>0.67</v>
+        <v>0.76</v>
       </c>
       <c r="E96">
-        <v>0.62</v>
+        <v>0.74</v>
       </c>
       <c r="F96" t="s">
         <v>8</v>
@@ -2454,7 +2454,7 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B97">
         <v>0.69</v>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B98">
         <v>0.52</v>
@@ -2498,7 +2498,7 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B99">
         <v>0.75</v>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B100">
         <v>0.59</v>
@@ -2542,7 +2542,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B101">
         <v>0.69</v>
@@ -2564,7 +2564,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B102">
         <v>0.65277777999999997</v>
@@ -2586,7 +2586,7 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B103">
         <v>0.56944444000000005</v>
@@ -2608,7 +2608,7 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B104">
         <v>0.56944444000000005</v>
@@ -2630,7 +2630,7 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B105">
         <v>0.56944444000000005</v>
@@ -2652,7 +2652,7 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B106">
         <v>0.63888889000000004</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B107">
         <v>0.58333332999999998</v>
@@ -2696,7 +2696,7 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B108">
         <v>0.68055555999999995</v>
@@ -2718,7 +2718,7 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B109">
         <v>0.59722222000000003</v>
@@ -2740,7 +2740,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B110">
         <v>0.58333332999999998</v>
@@ -2762,7 +2762,7 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B111">
         <v>0.625</v>
@@ -2784,7 +2784,7 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B112">
         <v>0.66123224999999997</v>
@@ -2806,7 +2806,7 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B113">
         <v>0.53367339999999996</v>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B114">
         <v>0.55836167000000003</v>
@@ -2850,7 +2850,7 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B115">
         <v>0.56973061000000003</v>
@@ -2872,7 +2872,7 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B116">
         <v>0.61342269000000005</v>
@@ -2894,7 +2894,7 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B117">
         <v>0.59978662000000005</v>
@@ -2916,7 +2916,7 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B118">
         <v>0.69378876</v>
@@ -2938,7 +2938,7 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B119">
         <v>0.59148495999999995</v>
@@ -2960,7 +2960,7 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B120">
         <v>0.58358337999999998</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B121">
         <v>0.60888843999999998</v>
@@ -3004,7 +3004,7 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B122">
         <v>0.75</v>
@@ -3026,7 +3026,7 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B123">
         <v>0.83</v>
@@ -3048,7 +3048,7 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B124">
         <v>0.75</v>
@@ -3070,7 +3070,7 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B125">
         <v>0.57999999999999996</v>
@@ -3092,7 +3092,7 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B126">
         <v>0.75</v>
@@ -3114,7 +3114,7 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B127">
         <v>0.92</v>
@@ -3136,7 +3136,7 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B128">
         <v>0.92</v>
@@ -3158,7 +3158,7 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B129">
         <v>0.75</v>
@@ -3180,7 +3180,7 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B130">
         <v>0.67</v>
@@ -3202,7 +3202,7 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B131">
         <v>0.75</v>
@@ -3224,7 +3224,7 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B132">
         <v>0.87</v>
@@ -3246,7 +3246,7 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B133">
         <v>0.77</v>
@@ -3268,7 +3268,7 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B134">
         <v>0.73</v>
@@ -3290,7 +3290,7 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B135">
         <v>0.56999999999999995</v>
@@ -3312,7 +3312,7 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B136">
         <v>0.71</v>
@@ -3334,7 +3334,7 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B137">
         <v>0.8</v>
@@ -3356,7 +3356,7 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B138">
         <v>0.78</v>
@@ -3378,7 +3378,7 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B139">
         <v>0.68</v>
@@ -3400,7 +3400,7 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B140">
         <v>0.59</v>
@@ -3422,7 +3422,7 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B141">
         <v>0.68</v>
